--- a/Analytics/F1/TGMXcorners_f1.xlsx
+++ b/Analytics/F1/TGMXcorners_f1.xlsx
@@ -76,67 +76,67 @@
     <t>18</t>
   </si>
   <si>
+    <t>Lyon</t>
+  </si>
+  <si>
     <t>Paris SG</t>
   </si>
   <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Le Havre</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
     <t>Rennes</t>
   </si>
   <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Lyon</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Lille</t>
+    <t>St Etienne</t>
+  </si>
+  <si>
+    <t>Marseille</t>
   </si>
   <si>
     <t>Lens</t>
   </si>
   <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Marseille</t>
-  </si>
-  <si>
-    <t>Monaco</t>
-  </si>
-  <si>
-    <t>Le Havre</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Metz</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
     <t>AwayTeam</t>
   </si>
   <si>
     <t>SUM("TTGMXcorners")</t>
   </si>
   <si>
-    <t>SUM("TTGMXcorners") / 34</t>
+    <t>SUM("TTGMXcorners") / 10</t>
   </si>
 </sst>
 </file>
@@ -204,7 +204,7 @@
         <v>20</v>
       </c>
       <c r="C2" t="n">
-        <v>31765.0</v>
+        <v>12886.0</v>
       </c>
     </row>
     <row r="3">
@@ -215,7 +215,7 @@
         <v>21</v>
       </c>
       <c r="C3" t="n">
-        <v>27895.0</v>
+        <v>11596.0</v>
       </c>
     </row>
     <row r="4">
@@ -226,7 +226,7 @@
         <v>22</v>
       </c>
       <c r="C4" t="n">
-        <v>26856.0</v>
+        <v>9290.0</v>
       </c>
     </row>
     <row r="5">
@@ -237,7 +237,7 @@
         <v>23</v>
       </c>
       <c r="C5" t="n">
-        <v>25601.0</v>
+        <v>8335.0</v>
       </c>
     </row>
     <row r="6">
@@ -248,7 +248,7 @@
         <v>24</v>
       </c>
       <c r="C6" t="n">
-        <v>24968.0</v>
+        <v>8016.0</v>
       </c>
     </row>
     <row r="7">
@@ -259,7 +259,7 @@
         <v>25</v>
       </c>
       <c r="C7" t="n">
-        <v>24022.0</v>
+        <v>7387.0</v>
       </c>
     </row>
     <row r="8">
@@ -270,7 +270,7 @@
         <v>26</v>
       </c>
       <c r="C8" t="n">
-        <v>21837.0</v>
+        <v>7339.0</v>
       </c>
     </row>
     <row r="9">
@@ -281,7 +281,7 @@
         <v>27</v>
       </c>
       <c r="C9" t="n">
-        <v>21564.0</v>
+        <v>6626.0</v>
       </c>
     </row>
     <row r="10">
@@ -292,7 +292,7 @@
         <v>28</v>
       </c>
       <c r="C10" t="n">
-        <v>20485.0</v>
+        <v>6173.0</v>
       </c>
     </row>
     <row r="11">
@@ -303,7 +303,7 @@
         <v>29</v>
       </c>
       <c r="C11" t="n">
-        <v>20303.0</v>
+        <v>5910.0</v>
       </c>
     </row>
     <row r="12">
@@ -314,7 +314,7 @@
         <v>30</v>
       </c>
       <c r="C12" t="n">
-        <v>20255.0</v>
+        <v>5783.0</v>
       </c>
     </row>
     <row r="13">
@@ -325,7 +325,7 @@
         <v>31</v>
       </c>
       <c r="C13" t="n">
-        <v>20110.0</v>
+        <v>5679.0</v>
       </c>
     </row>
     <row r="14">
@@ -336,7 +336,7 @@
         <v>32</v>
       </c>
       <c r="C14" t="n">
-        <v>19935.0</v>
+        <v>5462.0</v>
       </c>
     </row>
     <row r="15">
@@ -347,7 +347,7 @@
         <v>33</v>
       </c>
       <c r="C15" t="n">
-        <v>19139.0</v>
+        <v>5297.0</v>
       </c>
     </row>
     <row r="16">
@@ -358,7 +358,7 @@
         <v>34</v>
       </c>
       <c r="C16" t="n">
-        <v>18299.0</v>
+        <v>4753.0</v>
       </c>
     </row>
     <row r="17">
@@ -369,7 +369,7 @@
         <v>35</v>
       </c>
       <c r="C17" t="n">
-        <v>17697.0</v>
+        <v>4395.0</v>
       </c>
     </row>
     <row r="18">
@@ -380,7 +380,7 @@
         <v>36</v>
       </c>
       <c r="C18" t="n">
-        <v>14209.0</v>
+        <v>2979.0</v>
       </c>
     </row>
     <row r="19">
@@ -391,7 +391,7 @@
         <v>37</v>
       </c>
       <c r="C19" t="n">
-        <v>13765.0</v>
+        <v>2248.0</v>
       </c>
     </row>
   </sheetData>
@@ -421,10 +421,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C2" t="n">
-        <v>32976.0</v>
+        <v>13131.0</v>
       </c>
     </row>
     <row r="3">
@@ -432,10 +432,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C3" t="n">
-        <v>25945.0</v>
+        <v>11199.0</v>
       </c>
     </row>
     <row r="4">
@@ -446,7 +446,7 @@
         <v>36</v>
       </c>
       <c r="C4" t="n">
-        <v>25817.0</v>
+        <v>9052.0</v>
       </c>
     </row>
     <row r="5">
@@ -454,10 +454,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C5" t="n">
-        <v>25786.0</v>
+        <v>8625.0</v>
       </c>
     </row>
     <row r="6">
@@ -465,10 +465,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C6" t="n">
-        <v>24935.0</v>
+        <v>7902.0</v>
       </c>
     </row>
     <row r="7">
@@ -476,10 +476,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C7" t="n">
-        <v>24759.0</v>
+        <v>7657.0</v>
       </c>
     </row>
     <row r="8">
@@ -487,10 +487,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C8" t="n">
-        <v>23739.0</v>
+        <v>7159.0</v>
       </c>
     </row>
     <row r="9">
@@ -498,10 +498,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C9" t="n">
-        <v>23694.0</v>
+        <v>6732.0</v>
       </c>
     </row>
     <row r="10">
@@ -509,10 +509,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C10" t="n">
-        <v>20455.0</v>
+        <v>6605.0</v>
       </c>
     </row>
     <row r="11">
@@ -520,10 +520,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" t="n">
-        <v>20170.0</v>
+        <v>6320.0</v>
       </c>
     </row>
     <row r="12">
@@ -531,10 +531,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C12" t="n">
-        <v>19424.0</v>
+        <v>5986.0</v>
       </c>
     </row>
     <row r="13">
@@ -542,10 +542,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C13" t="n">
-        <v>18334.0</v>
+        <v>5465.0</v>
       </c>
     </row>
     <row r="14">
@@ -553,10 +553,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C14" t="n">
-        <v>18025.0</v>
+        <v>4865.0</v>
       </c>
     </row>
     <row r="15">
@@ -564,10 +564,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C15" t="n">
-        <v>17756.0</v>
+        <v>4197.0</v>
       </c>
     </row>
     <row r="16">
@@ -575,10 +575,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C16" t="n">
-        <v>17648.0</v>
+        <v>4130.0</v>
       </c>
     </row>
     <row r="17">
@@ -586,10 +586,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C17" t="n">
-        <v>17371.0</v>
+        <v>3756.0</v>
       </c>
     </row>
     <row r="18">
@@ -597,10 +597,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C18" t="n">
-        <v>16056.0</v>
+        <v>3748.0</v>
       </c>
     </row>
     <row r="19">
@@ -608,10 +608,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C19" t="n">
-        <v>15815.0</v>
+        <v>3625.0</v>
       </c>
     </row>
   </sheetData>
@@ -647,10 +647,10 @@
         <v>20</v>
       </c>
       <c r="C2" t="n">
-        <v>56700.0</v>
+        <v>19491.0</v>
       </c>
       <c r="D2" t="n">
-        <v>1667.6470588235295</v>
+        <v>1949.1</v>
       </c>
     </row>
     <row r="3">
@@ -658,13 +658,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C3" t="n">
-        <v>52115.0</v>
+        <v>18810.0</v>
       </c>
       <c r="D3" t="n">
-        <v>1532.7941176470588</v>
+        <v>1881.0</v>
       </c>
     </row>
     <row r="4">
@@ -672,13 +672,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C4" t="n">
-        <v>51615.0</v>
+        <v>18538.0</v>
       </c>
       <c r="D4" t="n">
-        <v>1518.0882352941176</v>
+        <v>1853.8</v>
       </c>
     </row>
     <row r="5">
@@ -686,13 +686,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C5" t="n">
-        <v>48662.0</v>
+        <v>18328.0</v>
       </c>
       <c r="D5" t="n">
-        <v>1431.235294117647</v>
+        <v>1832.8</v>
       </c>
     </row>
     <row r="6">
@@ -700,13 +700,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C6" t="n">
-        <v>46271.0</v>
+        <v>17915.0</v>
       </c>
       <c r="D6" t="n">
-        <v>1360.9117647058824</v>
+        <v>1791.5</v>
       </c>
     </row>
     <row r="7">
@@ -714,13 +714,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="n">
-        <v>46056.0</v>
+        <v>14002.0</v>
       </c>
       <c r="D7" t="n">
-        <v>1354.5882352941176</v>
+        <v>1400.2</v>
       </c>
     </row>
     <row r="8">
@@ -728,13 +728,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C8" t="n">
-        <v>43710.0</v>
+        <v>13119.0</v>
       </c>
       <c r="D8" t="n">
-        <v>1285.5882352941176</v>
+        <v>1311.9</v>
       </c>
     </row>
     <row r="9">
@@ -742,13 +742,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C9" t="n">
-        <v>43674.0</v>
+        <v>12655.0</v>
       </c>
       <c r="D9" t="n">
-        <v>1284.5294117647059</v>
+        <v>1265.5</v>
       </c>
     </row>
     <row r="10">
@@ -756,13 +756,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C10" t="n">
-        <v>43642.0</v>
+        <v>12493.0</v>
       </c>
       <c r="D10" t="n">
-        <v>1283.5882352941176</v>
+        <v>1249.3</v>
       </c>
     </row>
     <row r="11">
@@ -773,10 +773,10 @@
         <v>25</v>
       </c>
       <c r="C11" t="n">
-        <v>42356.0</v>
+        <v>12252.0</v>
       </c>
       <c r="D11" t="n">
-        <v>1245.764705882353</v>
+        <v>1225.2</v>
       </c>
     </row>
     <row r="12">
@@ -784,13 +784,13 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C12" t="n">
-        <v>40473.0</v>
+        <v>12091.0</v>
       </c>
       <c r="D12" t="n">
-        <v>1190.3823529411766</v>
+        <v>1209.1</v>
       </c>
     </row>
     <row r="13">
@@ -801,10 +801,10 @@
         <v>36</v>
       </c>
       <c r="C13" t="n">
-        <v>40026.0</v>
+        <v>12031.0</v>
       </c>
       <c r="D13" t="n">
-        <v>1177.235294117647</v>
+        <v>1203.1</v>
       </c>
     </row>
     <row r="14">
@@ -812,13 +812,13 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C14" t="n">
-        <v>39589.0</v>
+        <v>11554.0</v>
       </c>
       <c r="D14" t="n">
-        <v>1164.3823529411766</v>
+        <v>1155.4</v>
       </c>
     </row>
     <row r="15">
@@ -826,13 +826,13 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C15" t="n">
-        <v>39534.0</v>
+        <v>10823.0</v>
       </c>
       <c r="D15" t="n">
-        <v>1162.764705882353</v>
+        <v>1082.3</v>
       </c>
     </row>
     <row r="16">
@@ -840,13 +840,13 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C16" t="n">
-        <v>39485.0</v>
+        <v>9913.0</v>
       </c>
       <c r="D16" t="n">
-        <v>1161.3235294117646</v>
+        <v>991.3</v>
       </c>
     </row>
     <row r="17">
@@ -854,13 +854,13 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17" t="n">
-        <v>38011.0</v>
+        <v>9658.0</v>
       </c>
       <c r="D17" t="n">
-        <v>1117.9705882352941</v>
+        <v>965.8</v>
       </c>
     </row>
     <row r="18">
@@ -868,13 +868,13 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C18" t="n">
-        <v>35670.0</v>
+        <v>8922.0</v>
       </c>
       <c r="D18" t="n">
-        <v>1049.1176470588234</v>
+        <v>892.2</v>
       </c>
     </row>
     <row r="19">
@@ -885,10 +885,10 @@
         <v>37</v>
       </c>
       <c r="C19" t="n">
-        <v>29821.0</v>
+        <v>7713.0</v>
       </c>
       <c r="D19" t="n">
-        <v>877.0882352941177</v>
+        <v>771.3</v>
       </c>
     </row>
   </sheetData>

--- a/Analytics/F1/TGMXcorners_f1.xlsx
+++ b/Analytics/F1/TGMXcorners_f1.xlsx
@@ -76,37 +76,49 @@
     <t>18</t>
   </si>
   <si>
+    <t>Paris SG</t>
+  </si>
+  <si>
     <t>Lyon</t>
   </si>
   <si>
-    <t>Paris SG</t>
-  </si>
-  <si>
     <t>Montpellier</t>
   </si>
   <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Le Havre</t>
+  </si>
+  <si>
     <t>Lille</t>
   </si>
   <si>
-    <t>Le Havre</t>
+    <t>Auxerre</t>
   </si>
   <si>
     <t>Nantes</t>
   </si>
   <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Nice</t>
+    <t>Monaco</t>
   </si>
   <si>
     <t>Brest</t>
   </si>
   <si>
-    <t>Monaco</t>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Marseille</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
   </si>
   <si>
     <t>Strasbourg</t>
@@ -115,19 +127,7 @@
     <t>Reims</t>
   </si>
   <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
     <t>St Etienne</t>
-  </si>
-  <si>
-    <t>Marseille</t>
-  </si>
-  <si>
-    <t>Lens</t>
   </si>
   <si>
     <t>AwayTeam</t>
@@ -204,7 +204,7 @@
         <v>20</v>
       </c>
       <c r="C2" t="n">
-        <v>12886.0</v>
+        <v>15620.0</v>
       </c>
     </row>
     <row r="3">
@@ -215,7 +215,7 @@
         <v>21</v>
       </c>
       <c r="C3" t="n">
-        <v>11596.0</v>
+        <v>14874.0</v>
       </c>
     </row>
     <row r="4">
@@ -226,7 +226,7 @@
         <v>22</v>
       </c>
       <c r="C4" t="n">
-        <v>9290.0</v>
+        <v>14818.0</v>
       </c>
     </row>
     <row r="5">
@@ -237,7 +237,7 @@
         <v>23</v>
       </c>
       <c r="C5" t="n">
-        <v>8335.0</v>
+        <v>12361.0</v>
       </c>
     </row>
     <row r="6">
@@ -248,7 +248,7 @@
         <v>24</v>
       </c>
       <c r="C6" t="n">
-        <v>8016.0</v>
+        <v>12249.0</v>
       </c>
     </row>
     <row r="7">
@@ -259,7 +259,7 @@
         <v>25</v>
       </c>
       <c r="C7" t="n">
-        <v>7387.0</v>
+        <v>10539.0</v>
       </c>
     </row>
     <row r="8">
@@ -270,7 +270,7 @@
         <v>26</v>
       </c>
       <c r="C8" t="n">
-        <v>7339.0</v>
+        <v>9109.0</v>
       </c>
     </row>
     <row r="9">
@@ -281,7 +281,7 @@
         <v>27</v>
       </c>
       <c r="C9" t="n">
-        <v>6626.0</v>
+        <v>9067.0</v>
       </c>
     </row>
     <row r="10">
@@ -292,7 +292,7 @@
         <v>28</v>
       </c>
       <c r="C10" t="n">
-        <v>6173.0</v>
+        <v>9035.0</v>
       </c>
     </row>
     <row r="11">
@@ -303,7 +303,7 @@
         <v>29</v>
       </c>
       <c r="C11" t="n">
-        <v>5910.0</v>
+        <v>9033.0</v>
       </c>
     </row>
     <row r="12">
@@ -314,7 +314,7 @@
         <v>30</v>
       </c>
       <c r="C12" t="n">
-        <v>5783.0</v>
+        <v>8919.0</v>
       </c>
     </row>
     <row r="13">
@@ -325,7 +325,7 @@
         <v>31</v>
       </c>
       <c r="C13" t="n">
-        <v>5679.0</v>
+        <v>7273.0</v>
       </c>
     </row>
     <row r="14">
@@ -336,7 +336,7 @@
         <v>32</v>
       </c>
       <c r="C14" t="n">
-        <v>5462.0</v>
+        <v>7187.0</v>
       </c>
     </row>
     <row r="15">
@@ -347,7 +347,7 @@
         <v>33</v>
       </c>
       <c r="C15" t="n">
-        <v>5297.0</v>
+        <v>6891.0</v>
       </c>
     </row>
     <row r="16">
@@ -358,7 +358,7 @@
         <v>34</v>
       </c>
       <c r="C16" t="n">
-        <v>4753.0</v>
+        <v>6830.0</v>
       </c>
     </row>
     <row r="17">
@@ -369,7 +369,7 @@
         <v>35</v>
       </c>
       <c r="C17" t="n">
-        <v>4395.0</v>
+        <v>6540.0</v>
       </c>
     </row>
     <row r="18">
@@ -380,7 +380,7 @@
         <v>36</v>
       </c>
       <c r="C18" t="n">
-        <v>2979.0</v>
+        <v>6356.0</v>
       </c>
     </row>
     <row r="19">
@@ -391,7 +391,7 @@
         <v>37</v>
       </c>
       <c r="C19" t="n">
-        <v>2248.0</v>
+        <v>5885.0</v>
       </c>
     </row>
   </sheetData>
@@ -421,10 +421,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C2" t="n">
-        <v>13131.0</v>
+        <v>17001.0</v>
       </c>
     </row>
     <row r="3">
@@ -432,10 +432,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C3" t="n">
-        <v>11199.0</v>
+        <v>13071.0</v>
       </c>
     </row>
     <row r="4">
@@ -443,10 +443,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C4" t="n">
-        <v>9052.0</v>
+        <v>11440.0</v>
       </c>
     </row>
     <row r="5">
@@ -454,10 +454,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C5" t="n">
-        <v>8625.0</v>
+        <v>10834.0</v>
       </c>
     </row>
     <row r="6">
@@ -465,10 +465,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C6" t="n">
-        <v>7902.0</v>
+        <v>10538.0</v>
       </c>
     </row>
     <row r="7">
@@ -476,10 +476,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C7" t="n">
-        <v>7657.0</v>
+        <v>10356.0</v>
       </c>
     </row>
     <row r="8">
@@ -487,10 +487,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C8" t="n">
-        <v>7159.0</v>
+        <v>9842.0</v>
       </c>
     </row>
     <row r="9">
@@ -501,7 +501,7 @@
         <v>21</v>
       </c>
       <c r="C9" t="n">
-        <v>6732.0</v>
+        <v>9720.0</v>
       </c>
     </row>
     <row r="10">
@@ -509,10 +509,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C10" t="n">
-        <v>6605.0</v>
+        <v>9693.0</v>
       </c>
     </row>
     <row r="11">
@@ -520,10 +520,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C11" t="n">
-        <v>6320.0</v>
+        <v>9052.0</v>
       </c>
     </row>
     <row r="12">
@@ -531,10 +531,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C12" t="n">
-        <v>5986.0</v>
+        <v>8973.0</v>
       </c>
     </row>
     <row r="13">
@@ -542,10 +542,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C13" t="n">
-        <v>5465.0</v>
+        <v>8858.0</v>
       </c>
     </row>
     <row r="14">
@@ -553,10 +553,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="n">
-        <v>4865.0</v>
+        <v>8829.0</v>
       </c>
     </row>
     <row r="15">
@@ -564,10 +564,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C15" t="n">
-        <v>4197.0</v>
+        <v>8362.0</v>
       </c>
     </row>
     <row r="16">
@@ -575,10 +575,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C16" t="n">
-        <v>4130.0</v>
+        <v>7169.0</v>
       </c>
     </row>
     <row r="17">
@@ -586,10 +586,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C17" t="n">
-        <v>3756.0</v>
+        <v>7089.0</v>
       </c>
     </row>
     <row r="18">
@@ -600,7 +600,7 @@
         <v>29</v>
       </c>
       <c r="C18" t="n">
-        <v>3748.0</v>
+        <v>6455.0</v>
       </c>
     </row>
     <row r="19">
@@ -608,10 +608,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C19" t="n">
-        <v>3625.0</v>
+        <v>5304.0</v>
       </c>
     </row>
   </sheetData>
@@ -647,10 +647,10 @@
         <v>20</v>
       </c>
       <c r="C2" t="n">
-        <v>19491.0</v>
+        <v>26454.0</v>
       </c>
       <c r="D2" t="n">
-        <v>1949.1</v>
+        <v>2645.4</v>
       </c>
     </row>
     <row r="3">
@@ -658,13 +658,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C3" t="n">
-        <v>18810.0</v>
+        <v>25356.0</v>
       </c>
       <c r="D3" t="n">
-        <v>1881.0</v>
+        <v>2535.6</v>
       </c>
     </row>
     <row r="4">
@@ -672,13 +672,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C4" t="n">
-        <v>18538.0</v>
+        <v>24594.0</v>
       </c>
       <c r="D4" t="n">
-        <v>1853.8</v>
+        <v>2459.4</v>
       </c>
     </row>
     <row r="5">
@@ -686,13 +686,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C5" t="n">
-        <v>18328.0</v>
+        <v>23541.0</v>
       </c>
       <c r="D5" t="n">
-        <v>1832.8</v>
+        <v>2354.1</v>
       </c>
     </row>
     <row r="6">
@@ -700,13 +700,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="n">
-        <v>17915.0</v>
+        <v>22203.0</v>
       </c>
       <c r="D6" t="n">
-        <v>1791.5</v>
+        <v>2220.3</v>
       </c>
     </row>
     <row r="7">
@@ -714,13 +714,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C7" t="n">
-        <v>14002.0</v>
+        <v>22138.0</v>
       </c>
       <c r="D7" t="n">
-        <v>1400.2</v>
+        <v>2213.8</v>
       </c>
     </row>
     <row r="8">
@@ -728,13 +728,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C8" t="n">
-        <v>13119.0</v>
+        <v>20232.0</v>
       </c>
       <c r="D8" t="n">
-        <v>1311.9</v>
+        <v>2023.2</v>
       </c>
     </row>
     <row r="9">
@@ -742,13 +742,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" t="n">
-        <v>12655.0</v>
+        <v>18331.0</v>
       </c>
       <c r="D9" t="n">
-        <v>1265.5</v>
+        <v>1833.1</v>
       </c>
     </row>
     <row r="10">
@@ -756,13 +756,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C10" t="n">
-        <v>12493.0</v>
+        <v>17938.0</v>
       </c>
       <c r="D10" t="n">
-        <v>1249.3</v>
+        <v>1793.8</v>
       </c>
     </row>
     <row r="11">
@@ -770,13 +770,13 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C11" t="n">
-        <v>12252.0</v>
+        <v>17893.0</v>
       </c>
       <c r="D11" t="n">
-        <v>1225.2</v>
+        <v>1789.3</v>
       </c>
     </row>
     <row r="12">
@@ -784,13 +784,13 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="n">
-        <v>12091.0</v>
+        <v>17553.0</v>
       </c>
       <c r="D12" t="n">
-        <v>1209.1</v>
+        <v>1755.3</v>
       </c>
     </row>
     <row r="13">
@@ -798,13 +798,13 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C13" t="n">
-        <v>12031.0</v>
+        <v>17281.0</v>
       </c>
       <c r="D13" t="n">
-        <v>1203.1</v>
+        <v>1728.1</v>
       </c>
     </row>
     <row r="14">
@@ -812,13 +812,13 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C14" t="n">
-        <v>11554.0</v>
+        <v>16246.0</v>
       </c>
       <c r="D14" t="n">
-        <v>1155.4</v>
+        <v>1624.6</v>
       </c>
     </row>
     <row r="15">
@@ -826,13 +826,13 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C15" t="n">
-        <v>10823.0</v>
+        <v>16241.0</v>
       </c>
       <c r="D15" t="n">
-        <v>1082.3</v>
+        <v>1624.1</v>
       </c>
     </row>
     <row r="16">
@@ -840,13 +840,13 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" t="n">
-        <v>9913.0</v>
+        <v>15488.0</v>
       </c>
       <c r="D16" t="n">
-        <v>991.3</v>
+        <v>1548.8</v>
       </c>
     </row>
     <row r="17">
@@ -854,13 +854,13 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C17" t="n">
-        <v>9658.0</v>
+        <v>15408.0</v>
       </c>
       <c r="D17" t="n">
-        <v>965.8</v>
+        <v>1540.8</v>
       </c>
     </row>
     <row r="18">
@@ -868,13 +868,13 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C18" t="n">
-        <v>8922.0</v>
+        <v>14356.0</v>
       </c>
       <c r="D18" t="n">
-        <v>892.2</v>
+        <v>1435.6</v>
       </c>
     </row>
     <row r="19">
@@ -882,13 +882,13 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C19" t="n">
-        <v>7713.0</v>
+        <v>13919.0</v>
       </c>
       <c r="D19" t="n">
-        <v>771.3</v>
+        <v>1391.9</v>
       </c>
     </row>
   </sheetData>
